--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulMarjanIlseMeike\Dropbox\Paul\DataScience\Projects\AdventOfCode2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aegon-my.sharepoint.com/personal/huizinga_p_aegonam_com/Documents/Python/AdventOfCode2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C739C77-05CF-4573-959B-A8EA63C62475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5C739C77-05CF-4573-959B-A8EA63C62475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035FE6E8-A7AB-462B-A798-E9D3212E2F25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED6DA573-F25F-44B5-9C9A-8EC9BA043F61}"/>
+    <workbookView xWindow="1200" yWindow="-16830" windowWidth="21600" windowHeight="12735" xr2:uid="{ED6DA573-F25F-44B5-9C9A-8EC9BA043F61}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +172,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2A76742A-333D-44AF-881A-F1F0A7D65BB6}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1542,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="P2">
-        <f>COUNT(B2:O2)</f>
+        <f t="shared" ref="P2:P32" si="10">COUNT(B2:O2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1556,361 +1560,361 @@
         <v>2</v>
       </c>
       <c r="P3">
-        <f>COUNT(B3:O3)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A32" si="10">A3+1</f>
+        <f t="shared" ref="A4:A32" si="11">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:F21" si="11">IF(B3=0,6,B3-1)</f>
+        <f t="shared" ref="B4:F21" si="12">IF(B3=0,6,B3-1)</f>
         <v>1</v>
       </c>
       <c r="P4">
-        <f>COUNT(B4:O4)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>COUNT(B5:O5)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="C6" s="3">
-        <v>8</v>
-      </c>
-      <c r="P6">
-        <f>COUNT(B6:O6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="P7">
-        <f>COUNT(B7:O7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <f>COUNT(B8:O8)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
       <c r="B9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="P9">
-        <f>COUNT(B9:O9)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="P10">
-        <f>COUNT(B10:O10)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="P11">
-        <f>COUNT(B11:O11)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="P12">
-        <f>COUNT(B12:O12)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
       <c r="P13">
-        <f>COUNT(B13:O13)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P14">
-        <f>COUNT(B14:O14)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E15" s="4">
         <v>8</v>
       </c>
       <c r="P15">
-        <f>COUNT(B15:O15)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P16">
-        <f>COUNT(B16:O16)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="P17">
-        <f>COUNT(B17:O17)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="P18">
-        <f>COUNT(B18:O18)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="P19">
-        <f>COUNT(B19:O19)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>8</v>
       </c>
       <c r="P20">
-        <f>COUNT(B20:O20)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -1920,486 +1924,486 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:B27" si="12">IF(B20=0,6,B20-1)</f>
+        <f t="shared" ref="B21:B27" si="13">IF(B20=0,6,B20-1)</f>
         <v>5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C27" si="13">IF(C20=0,6,C20-1)</f>
+        <f t="shared" ref="C21:C27" si="14">IF(C20=0,6,C20-1)</f>
         <v>0</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ref="D21:D27" si="14">IF(D20=0,6,D20-1)</f>
+        <f t="shared" ref="D21:D27" si="15">IF(D20=0,6,D20-1)</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:F27" si="15">IF(E20=0,6,E20-1)</f>
+        <f t="shared" ref="E21:F27" si="16">IF(E20=0,6,E20-1)</f>
         <v>2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P21">
-        <f>COUNT(B21:O21)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="C22">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G27" si="17">IF(G22=0,6,G22-1)</f>
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:I27" si="18">IF(H22=0,6,H22-1)</f>
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="C27">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="G22" s="4">
-        <v>8</v>
-      </c>
-      <c r="H22" s="5">
-        <v>8</v>
-      </c>
-      <c r="P22">
-        <f>COUNT(B22:O22)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G23:G27" si="16">IF(G22=0,6,G22-1)</f>
-        <v>7</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:I27" si="17">IF(H22=0,6,H22-1)</f>
-        <v>7</v>
-      </c>
-      <c r="P23">
-        <f>COUNT(B23:O23)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="I24" s="6">
-        <v>8</v>
-      </c>
-      <c r="P24">
-        <f>COUNT(B24:O24)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="P25">
-        <f>COUNT(B25:O25)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="P26">
-        <f>COUNT(B26:O26)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
       <c r="E27">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="H27">
+      <c r="F27">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
       <c r="I27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="J27" s="3">
         <v>8</v>
       </c>
       <c r="P27">
-        <f>COUNT(B27:O27)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B32" si="18">IF(B27=0,6,B27-1)</f>
+        <f t="shared" ref="B28:B32" si="19">IF(B27=0,6,B27-1)</f>
         <v>5</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:C32" si="19">IF(C27=0,6,C27-1)</f>
+        <f t="shared" ref="C28:C32" si="20">IF(C27=0,6,C27-1)</f>
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ref="D28:D32" si="20">IF(D27=0,6,D27-1)</f>
+        <f t="shared" ref="D28:D32" si="21">IF(D27=0,6,D27-1)</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E32" si="21">IF(E27=0,6,E27-1)</f>
+        <f t="shared" ref="E28:E32" si="22">IF(E27=0,6,E27-1)</f>
         <v>2</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" ref="F28:F32" si="22">IF(F27=0,6,F27-1)</f>
+        <f t="shared" ref="F28:F32" si="23">IF(F27=0,6,F27-1)</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G32" si="23">IF(G27=0,6,G27-1)</f>
+        <f t="shared" ref="G28:G32" si="24">IF(G27=0,6,G27-1)</f>
         <v>2</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:J32" si="24">IF(H27=0,6,H27-1)</f>
+        <f t="shared" ref="H28:J32" si="25">IF(H27=0,6,H27-1)</f>
         <v>2</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I32" si="25">IF(I27=0,6,I27-1)</f>
+        <f t="shared" ref="I28:I32" si="26">IF(I27=0,6,I27-1)</f>
         <v>4</v>
       </c>
       <c r="J28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="P28">
-        <f>COUNT(B28:O28)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="C29">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="D29">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
+      <c r="D29">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
       <c r="E29">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="K29" s="4">
+        <v>8</v>
+      </c>
+      <c r="L29" s="5">
+        <v>8</v>
+      </c>
+      <c r="M29" s="8">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J32" si="27">IF(J29=0,6,J29-1)</f>
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K32" si="28">IF(K29=0,6,K29-1)</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L32" si="29">IF(L29=0,6,L29-1)</f>
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M32" si="30">IF(M29=0,6,M29-1)</f>
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="G29">
+      <c r="F31">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="K29" s="4">
-        <v>8</v>
-      </c>
-      <c r="L29" s="5">
-        <v>8</v>
-      </c>
-      <c r="M29" s="8">
-        <v>8</v>
-      </c>
-      <c r="P29">
-        <f>COUNT(B29:O29)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="H31">
         <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30:J32" si="26">IF(J29=0,6,J29-1)</f>
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="K30:K32" si="27">IF(K29=0,6,K29-1)</f>
-        <v>7</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30:L32" si="28">IF(L29=0,6,L29-1)</f>
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ref="M30:M32" si="29">IF(M29=0,6,M29-1)</f>
-        <v>7</v>
-      </c>
-      <c r="P30">
-        <f>COUNT(B30:O30)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="24"/>
-        <v>6</v>
-      </c>
       <c r="I31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="K31">
-        <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="L31">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="M31">
+      <c r="L31">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
+      <c r="M31">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
       <c r="N31" s="9">
         <v>8</v>
       </c>
@@ -2407,73 +2411,73 @@
         <v>8</v>
       </c>
       <c r="P31">
-        <f>COUNT(B31:O31)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="C32">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="D32">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
+      <c r="D32">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
       <c r="E32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="H32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="K32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32" si="30">IF(N31=0,6,N31-1)</f>
+        <f t="shared" ref="N32" si="31">IF(N31=0,6,N31-1)</f>
         <v>7</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32" si="31">IF(O31=0,6,O31-1)</f>
+        <f t="shared" ref="O32" si="32">IF(O31=0,6,O31-1)</f>
         <v>7</v>
       </c>
       <c r="P32">
-        <f>COUNT(B32:O32)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
@@ -2490,51 +2494,51 @@
         <v>27</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:O34" si="32">COUNT(D2:D32)</f>
+        <f t="shared" ref="D34:O34" si="33">COUNT(D2:D32)</f>
         <v>20</v>
       </c>
       <c r="E34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="F34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="G34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="H34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="I34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="K34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="L34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="M34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="N34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
     </row>
@@ -2543,55 +2547,55 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <f>C34-8</f>
+        <f t="shared" ref="C35:J35" si="34">C34-8</f>
         <v>19</v>
       </c>
       <c r="D35">
-        <f>D34-8</f>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="E35">
-        <f>E34-8</f>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="F35">
-        <f>F34-8</f>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="G35">
-        <f>G34-8</f>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="H35">
-        <f>H34-8</f>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="I35">
-        <f>I34-8</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="J35">
-        <f>J34-8</f>
+        <f t="shared" si="34"/>
         <v>-2</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:O35" si="33">K34-8</f>
+        <f t="shared" ref="K35:O35" si="35">K34-8</f>
         <v>-4</v>
       </c>
       <c r="L35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-4</v>
       </c>
       <c r="M35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-4</v>
       </c>
       <c r="N35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-6</v>
       </c>
       <c r="O35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-6</v>
       </c>
     </row>
@@ -2604,55 +2608,55 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <f>IF(C35&gt;0,ROUNDUP(C35/7,0),0)</f>
+        <f t="shared" ref="C36:J36" si="36">IF(C35&gt;0,ROUNDUP(C35/7,0),0)</f>
         <v>3</v>
       </c>
       <c r="D36">
-        <f>IF(D35&gt;0,ROUNDUP(D35/7,0),0)</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="E36">
-        <f>IF(E35&gt;0,ROUNDUP(E35/7,0),0)</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="F36">
-        <f>IF(F35&gt;0,ROUNDUP(F35/7,0),0)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="G36">
-        <f>IF(G35&gt;0,ROUNDUP(G35/7,0),0)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f>IF(H35&gt;0,ROUNDUP(H35/7,0),0)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I36">
-        <f>IF(I35&gt;0,ROUNDUP(I35/7,0),0)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J36">
-        <f>IF(J35&gt;0,ROUNDUP(J35/7,0),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:O36" si="34">IF(K35&gt;0,ROUNDUP(K35/7,0),0)</f>
+        <f t="shared" ref="K36:O36" si="37">IF(K35&gt;0,ROUNDUP(K35/7,0),0)</f>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P36">
@@ -2674,47 +2678,47 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:J37" si="35">D37+E36</f>
+        <f t="shared" ref="E37:J37" si="38">D37+E36</f>
         <v>11</v>
       </c>
       <c r="F37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="G37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="H37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="I37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="J37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37" si="36">J37+K36</f>
+        <f t="shared" ref="K37" si="39">J37+K36</f>
         <v>15</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37" si="37">K37+L36</f>
+        <f t="shared" ref="L37" si="40">K37+L36</f>
         <v>15</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37" si="38">L37+M36</f>
+        <f t="shared" ref="M37" si="41">L37+M36</f>
         <v>15</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37" si="39">M37+N36</f>
+        <f t="shared" ref="N37" si="42">M37+N36</f>
         <v>15</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37" si="40">N37+O36</f>
+        <f t="shared" ref="O37" si="43">N37+O36</f>
         <v>15</v>
       </c>
     </row>
